--- a/biology/Botanique/Alangium_chinense/Alangium_chinense.xlsx
+++ b/biology/Botanique/Alangium_chinense/Alangium_chinense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alangium chinense est un arbre de la famille des Alangiacées en classification classique de Cronquist (1981)[1] ou de la famille des Cornacées en classification AGP II ou AGP III, d'Asie et d'Afrique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alangium chinense est un arbre de la famille des Alangiacées en classification classique de Cronquist (1981) ou de la famille des Cornacées en classification AGP II ou AGP III, d'Asie et d'Afrique.
 Nom chinois : 八角楓
 </t>
         </is>
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre peut atteindre 18 m en Chine mais sa taille est souvent plus réduite.
 Son feuillage est caduc dans les climats tempérés, mais persistant dans les pays tropicaux.
 Les feuilles, entières, de 8-25 cm de long, sont disposées de façon alterne ; le limbe est de forme asymétrique, ovale-elliptique de 15 à 18 cm de long sur 8 à 12 de large, avec de petites pointes encadrant des lobes. Le dessus est vert foncé, le dessous clair.
 Les inflorescences sont des cymes corymboïdes, axilliaires, longues de 6 à 8 cm avec 12 à 15 fleurs. Les fleurs sont blanches pubescentes odorantes, longues de 2 cm. Les pétales - généralement au nombre de 6, mais pouvant être jusqu'à 8 - sont lancéolés, longs de 1 à 1,5 cm et  incurvés vers le pédicelle de la fleur. Les étamines, au nombre égal à celui des pétales, sont resserrées le long du style.
 Les fruits, ovoïdes à ellipsoïdes, ont 8 à 15 mm de long et sont cotelés.
-L'espèce a 2 * 33 chromosomes[2].
+L'espèce a 2 * 33 chromosomes.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On compte quatre sous-espèces :
 Inflorescences à 6 fleurs au plus
@@ -602,7 +618,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Alangium chinense est une essence forestière ; elle se plaît dans un sol bien drainé, et apprécie une exposition ensoleillée ou de demi-ombre.
 Cette espèce a une aire de répartition étendue : Asie tempérée et tropicale (Chine, Népal, Inde, Pakistan), Asie du Sud-est (Cambodge, Laos, Vietnam, Myanmar, Thaïlande), Java, Afrique centrale  et du sud  (Kenya, Tanzanie, Ouganda, Cameroun, Guinée équatoriale, Rwanda, Burundi, Congo, Angola).
@@ -634,10 +652,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un usage ornemental de cet arbre se développe en France pour sa floraison estivale parfumée et sa bonne rusticité[3].
-Un usage local en menuiserie et bois d'œuvre est possible[4] mais sa croissance lente ne destine pas cette essence à une exploitation sylvicole.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un usage ornemental de cet arbre se développe en France pour sa floraison estivale parfumée et sa bonne rusticité.
+Un usage local en menuiserie et bois d'œuvre est possible mais sa croissance lente ne destine pas cette essence à une exploitation sylvicole.
 L'huile des graines peut être extraite et utilisée pour l'éclairage.
 Ses racines sont utilisées en pharmacopée chinoise traditionnelle. Alangium chinense fait partie des 50 plantes fondamentales de l'herbologie chinoise.
 			Fleurs
